--- a/UPDokument/Glossary.xlsx
+++ b/UPDokument/Glossary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\UPDokument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>Glossary</t>
   </si>
@@ -262,6 +262,30 @@
   </si>
   <si>
     <t>13-16 tilføjet</t>
+  </si>
+  <si>
+    <t>antalPersoner</t>
+  </si>
+  <si>
+    <t>antal af personer der bestiller den tur</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>antal passegerer : same but change to antalPersoner</t>
+  </si>
+  <si>
+    <t>Elaboration draft1</t>
+  </si>
+  <si>
+    <t>13.maj 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 : antal personer </t>
+  </si>
+  <si>
+    <t>Jonas og Juyoung Choi</t>
   </si>
 </sst>
 </file>
@@ -704,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +739,7 @@
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,6 +882,20 @@
       </c>
       <c r="D13" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +916,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,16 +1218,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">

--- a/UPDokument/Glossary.xlsx
+++ b/UPDokument/Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>Glossary</t>
   </si>
@@ -286,6 +286,45 @@
   </si>
   <si>
     <t>Jonas og Juyoung Choi</t>
+  </si>
+  <si>
+    <t>Elaboration draft2</t>
+  </si>
+  <si>
+    <t>16. maj 2016</t>
+  </si>
+  <si>
+    <t>18 : HistorikSøgningsMuligheder</t>
+  </si>
+  <si>
+    <t>for at angive søgnings oplysninger (fraDato, tilDato) til kunde, (fraDato, tilDato, kommune, cprNummer) til BM(bestillingsModtagelse)</t>
+  </si>
+  <si>
+    <t>UC1</t>
+  </si>
+  <si>
+    <t>historikSøgningsMuligheder</t>
+  </si>
+  <si>
+    <t>use string of address with postnummer for kilometer udregning</t>
+  </si>
+  <si>
+    <t>uc2, 4</t>
+  </si>
+  <si>
+    <t>Elaboration draft3</t>
+  </si>
+  <si>
+    <t>19 : google map service</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>OKTTP-2.5.0 system</t>
+  </si>
+  <si>
+    <t>okhttp-2.5.0.jar, okio</t>
   </si>
 </sst>
 </file>
@@ -353,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -365,6 +404,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D15" totalsRowShown="0">
-  <autoFilter ref="A5:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D16" totalsRowShown="0">
+  <autoFilter ref="A5:D16"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date"/>
@@ -728,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,20 +785,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -896,6 +938,34 @@
       </c>
       <c r="D14" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,13 +1002,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1237,27 +1307,41 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">

--- a/UPDokument/Glossary.xlsx
+++ b/UPDokument/Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Revision list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>Glossary</t>
   </si>
@@ -225,9 +225,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>MidtTrafik virksomhed, Chef af MidtTrafik</t>
-  </si>
-  <si>
     <t>Inception draft 8</t>
   </si>
   <si>
@@ -325,6 +322,54 @@
   </si>
   <si>
     <t>okhttp-2.5.0.jar, okio</t>
+  </si>
+  <si>
+    <t>MidtTrafik virksomhed</t>
+  </si>
+  <si>
+    <t>interessenter</t>
+  </si>
+  <si>
+    <t>midtTrafiks chef</t>
+  </si>
+  <si>
+    <t>MidtTrafiks direktør</t>
+  </si>
+  <si>
+    <t>personllige oplysninger af kunde</t>
+  </si>
+  <si>
+    <t>profil oplysninger, kunde oplysninger, kundeoplysninger</t>
+  </si>
+  <si>
+    <t>Elaboration draft4</t>
+  </si>
+  <si>
+    <t>24. maj 2016</t>
+  </si>
+  <si>
+    <t>opret bruger</t>
+  </si>
+  <si>
+    <t>opret kunde, opret en ny kunde</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>brugergræsnflade for FlexturSystem</t>
+  </si>
+  <si>
+    <t>gui, skærme</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>opret  en kundeprofil i GUI :</t>
+  </si>
+  <si>
+    <t>20, 21 opret profil : kundeoplysninger = profiloplysninger, 22 : opret bruger = kunde</t>
   </si>
 </sst>
 </file>
@@ -392,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -433,11 +478,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -479,12 +530,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D16" totalsRowShown="0">
-  <autoFilter ref="A5:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D17" totalsRowShown="0">
+  <autoFilter ref="A5:D17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Description"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
     <tableColumn id="4" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -492,16 +543,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:G44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:G44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:G44"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="ID" dataDxfId="6"/>
-    <tableColumn id="1" name="Term" dataDxfId="5"/>
-    <tableColumn id="2" name="Definition and information" dataDxfId="4"/>
-    <tableColumn id="6" name="Specifik UC reference" dataDxfId="3"/>
-    <tableColumn id="3" name="Format" dataDxfId="2"/>
-    <tableColumn id="4" name="Validation Rules" dataDxfId="1"/>
-    <tableColumn id="5" name="Aliases" dataDxfId="0"/>
+    <tableColumn id="7" name="ID" dataDxfId="7"/>
+    <tableColumn id="1" name="Term" dataDxfId="6"/>
+    <tableColumn id="2" name="Definition and information" dataDxfId="5"/>
+    <tableColumn id="6" name="Specifik UC reference" dataDxfId="4"/>
+    <tableColumn id="3" name="Format" dataDxfId="3"/>
+    <tableColumn id="4" name="Validation Rules" dataDxfId="2"/>
+    <tableColumn id="5" name="Aliases" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,17 +821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -807,7 +858,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -821,7 +872,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -835,7 +886,7 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
@@ -849,7 +900,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
@@ -863,7 +914,7 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
@@ -877,7 +928,7 @@
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
@@ -891,7 +942,7 @@
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
@@ -903,10 +954,10 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -914,13 +965,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -928,27 +979,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -956,23 +1007,33 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
-        <v>97</v>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -985,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1046,7 +1107,7 @@
       <c r="D4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1230,7 +1291,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1238,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -1249,7 +1310,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1257,10 +1318,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>60</v>
@@ -1276,16 +1337,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1293,18 +1354,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -1312,13 +1373,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1329,63 +1390,89 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8">

--- a/UPDokument/Glossary.xlsx
+++ b/UPDokument/Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
   <si>
     <t>Glossary</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>20, 21 opret profil : kundeoplysninger = profiloplysninger, 22 : opret bruger = kunde</t>
+  </si>
+  <si>
+    <t>flextur, tur</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1046,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1142,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">

--- a/UPDokument/Glossary.xlsx
+++ b/UPDokument/Glossary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>Glossary</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Format</t>
   </si>
   <si>
-    <t>Validation Rules</t>
-  </si>
-  <si>
     <t>Aliases</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>skal bruges til login : brugernavn, kunde ID</t>
   </si>
   <si>
-    <t>mindst 6 combination af bogstav + nummer</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -199,12 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve">bruger til systemet (ubestemt role) </t>
-  </si>
-  <si>
-    <t>mindst 6 bogstav eller cpr-nummer</t>
-  </si>
-  <si>
-    <t>tjek date.now() /LocalDate.now()</t>
   </si>
   <si>
     <t>SF-UC2-bestilFlextur</t>
@@ -475,26 +463,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -519,6 +501,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -538,7 +523,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="3" name="Description" dataDxfId="8"/>
     <tableColumn id="4" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -546,16 +531,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:G44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:G44"/>
-  <tableColumns count="7">
-    <tableColumn id="7" name="ID" dataDxfId="7"/>
-    <tableColumn id="1" name="Term" dataDxfId="6"/>
-    <tableColumn id="2" name="Definition and information" dataDxfId="5"/>
-    <tableColumn id="6" name="Specifik UC reference" dataDxfId="4"/>
-    <tableColumn id="3" name="Format" dataDxfId="3"/>
-    <tableColumn id="4" name="Validation Rules" dataDxfId="2"/>
-    <tableColumn id="5" name="Aliases" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:F26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F26"/>
+  <tableColumns count="6">
+    <tableColumn id="7" name="ID" dataDxfId="5"/>
+    <tableColumn id="1" name="Term" dataDxfId="4"/>
+    <tableColumn id="2" name="Definition and information" dataDxfId="3"/>
+    <tableColumn id="6" name="Specifik UC reference" dataDxfId="2"/>
+    <tableColumn id="3" name="Format" dataDxfId="1"/>
+    <tableColumn id="5" name="Aliases" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -884,13 +868,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -898,13 +882,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -912,13 +896,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -926,13 +910,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -940,13 +924,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -954,13 +938,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -968,13 +952,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -982,27 +966,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1010,27 +994,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1047,36 +1031,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1085,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1093,589 +1076,357 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>29</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>31</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>32</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>33</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>34</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>36</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>37</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>38</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>39</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>40</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="F26" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
